--- a/output/StructureDefinition-TICTFDocRta.xlsx
+++ b/output/StructureDefinition-TICTFDocRta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-17T12:30:07-03:00</t>
+    <t>2025-08-25T16:41:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1660,17 +1660,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.53125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.0234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.40625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.31640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.38671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1679,26 +1679,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.37109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="149.28515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.16015625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="31.41015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="146.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.4375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="23.53125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="59.0078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="37.83203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="30.9375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.43359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="58.125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-TICTFDocRta.xlsx
+++ b/output/StructureDefinition-TICTFDocRta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-17T12:30:07-03:00</t>
+    <t>2025-08-25T12:04:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
